--- a/xlsx/行为_intext.xlsx
+++ b/xlsx/行为_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>行为</t>
   </si>
@@ -26,88 +26,88 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_行为</t>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
+    <t>动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>生物體</t>
+    <t>生物体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>物體</t>
+    <t>物体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>反應</t>
+    <t>反应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B1%85%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>群居動物</t>
+    <t>群居动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>意識</t>
+    <t>意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>無意識</t>
+    <t>无意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>內分泌系統</t>
+    <t>内分泌系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神經系統</t>
+    <t>神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>行為主義</t>
+    <t>行为主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -119,9 +119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>行为主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E8%A1%8C%E4%B8%BA%E5%AD%A6</t>
   </si>
   <si>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算機科學</t>
+    <t>计算机科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E5%90%91%E5%AF%B9%E8%B1%A1%E7%A8%8B%E5%BA%8F%E8%AE%BE%E8%AE%A1</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95_(%E9%9B%BB%E8%85%A6%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>方法 (電腦科學)</t>
+    <t>方法 (电脑科学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/functional_reactive_programming</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%83%BD%E8%A1%8C%E4%B8%BA</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E7%A7%91%E5%AD%A6</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>社會關係</t>
+    <t>社会关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E5%81%8F%E5%B7%AE</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>法律行為</t>
+    <t>法律行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E6%9D%83%E8%A1%8C%E4%B8%BA</t>
@@ -1083,7 +1080,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1109,10 +1106,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1138,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1167,10 +1164,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1196,10 +1193,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1225,10 +1222,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1254,10 +1251,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1283,10 +1280,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1312,10 +1309,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1341,10 +1338,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1370,10 +1367,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1399,10 +1396,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1428,10 +1425,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1457,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1486,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1515,10 +1512,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1544,10 +1541,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1573,10 +1570,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1602,10 +1599,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1631,10 +1628,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1660,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1689,10 +1686,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1718,10 +1715,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -1747,10 +1744,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
